--- a/biology/Botanique/Puya_raimondii/Puya_raimondii.xlsx
+++ b/biology/Botanique/Puya_raimondii/Puya_raimondii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puya raimondii, également titanka en langue quechua, est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été nommée ainsi d'après le naturaliste Antonio Raimondi (1826-1890) qui la découvrit.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre dans la cordillère des Andes à une altitude de 3 200 à 4 800 mètres (puna). On la rencontre au Pérou, en Bolivie et au nord du Chili.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit environ entre soixante-dix et cent ans et meurt après son unique floraison. C'est donc une plante monocarpique ou hapaxanthe. Elle peut atteindre une taille de 3 mètres. Sa hampe florale peut mesurer jusqu'à 9 mètres et porter jusqu'à 20 000 fleurs.
 </t>
@@ -604,9 +622,11 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2009, l'espèce est considérée comme « en danger » par l'Union internationale pour la conservation de la nature[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2009, l'espèce est considérée comme « en danger » par l'Union internationale pour la conservation de la nature.
 </t>
         </is>
       </c>
